--- a/bh3/546912163286528826_2021-07-13_19-38-31.xlsx
+++ b/bh3/546912163286528826_2021-07-13_19-38-31.xlsx
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11170,7 +11170,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20314,7 +20314,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23282,7 +23282,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -31320,7 +31320,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -41049,7 +41049,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -42033,7 +42033,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -42171,7 +42171,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -42317,7 +42317,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -42629,7 +42629,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -43197,7 +43197,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -44650,7 +44650,7 @@
         </is>
       </c>
       <c r="I576" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J576" t="inlineStr">
         <is>

--- a/bh3/546912163286528826_2021-07-13_19-38-31.xlsx
+++ b/bh3/546912163286528826_2021-07-13_19-38-31.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:32:26</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44395.56418981482</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:44:08</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44395.40564814815</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>4930527157</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:33:29</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44394.77325231482</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>4930530388</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:33:10</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44394.77303240741</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:19:19</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44392.68008101852</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -907,10 +913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:52</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44392.57768518518</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -978,10 +982,8 @@
           <t>4912982058</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:59:37</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44392.4997337963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1057,10 +1059,8 @@
           <t>4912891723</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:45</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44392.49010416667</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1132,10 +1132,8 @@
           <t>4912220786</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-15 09:51:50</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44392.41099537037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1203,10 +1201,8 @@
           <t>4912009500</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-15 09:10:11</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44392.38207175926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1270,10 +1266,8 @@
           <t>4911683619</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-15 07:44:14</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44392.32238425926</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1351,10 +1345,8 @@
           <t>4902653297</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-15 01:42:56</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44392.07148148148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1418,10 +1410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-15 01:16:53</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44392.05339120371</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1489,10 +1479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-15 00:32:58</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44392.02289351852</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1564,10 +1552,8 @@
           <t>4909488529</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:29:46</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44391.8956712963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1631,10 +1617,8 @@
           <t>4908757271</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:48:50</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44391.82557870371</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1710,10 +1694,8 @@
           <t>4902576263</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:06:54</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44391.79645833333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1781,10 +1763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:59:44</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44391.79148148148</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1856,10 +1836,8 @@
           <t>4902576263</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:03:44</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44391.75259259259</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1923,10 +1901,8 @@
           <t>4902576263</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-14 17:06:05</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44391.71255787037</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1994,10 +1970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:35:53</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44391.60825231481</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2065,10 +2039,8 @@
           <t>4906356770</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:22:56</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44391.5575925926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2144,10 +2116,8 @@
           <t>4902571840</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:41:45</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44391.52899305556</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2216,10 +2186,8 @@
           <t>4905875646</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:12:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44391.50884259259</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2283,10 +2251,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:05:26</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44391.50377314815</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2354,10 +2320,8 @@
           <t>4905614070</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:32:29</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44391.4808912037</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2425,10 +2389,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:20:33</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44391.47260416667</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2492,10 +2454,8 @@
           <t>4905513560</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:16:03</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44391.46947916667</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2563,10 +2523,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:10:15</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44391.46545138889</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2642,10 +2600,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:09:52</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44391.46518518519</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2721,10 +2677,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:08:37</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44391.46431712963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2800,10 +2754,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:08:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44391.46391203703</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2879,10 +2831,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:06:52</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44391.46310185185</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2958,10 +2908,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:05:59</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44391.46248842592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3037,10 +2985,8 @@
           <t>4905453258</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:05:02</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44391.4618287037</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3109,10 +3055,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:04:27</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44391.46142361111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3188,10 +3132,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:03:42</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44391.46090277778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3267,10 +3209,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:03:00</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44391.46041666667</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3346,10 +3286,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:59:41</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44391.45811342593</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3425,10 +3363,8 @@
           <t>4905413194</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:58:02</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44391.4569675926</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3504,10 +3440,8 @@
           <t>4902653297</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:45:55</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44391.44855324074</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3571,10 +3505,8 @@
           <t>4903165501</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:40:43</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44391.44494212963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3638,10 +3570,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:39:46</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44391.44428240741</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3705,10 +3635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:16:10</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44391.42789351852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3772,10 +3700,8 @@
           <t>4905171945</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:11:44</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44391.42481481482</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3847,10 +3773,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:10:34</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44391.42400462963</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3926,10 +3850,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:09:40</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44391.42337962963</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4005,10 +3927,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:08:35</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44391.42262731482</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4072,10 +3992,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:59:05</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44391.41603009259</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4143,10 +4061,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:57:11</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44391.41471064815</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4222,10 +4138,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:55:47</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44391.41373842592</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4301,10 +4215,8 @@
           <t>4905048008</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:47:18</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44391.40784722222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4372,10 +4284,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:45:59</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44391.40693287037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4439,10 +4349,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:43:59</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44391.40554398148</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4506,10 +4414,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:39:49</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44391.40265046297</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4585,10 +4491,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:38:47</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44391.40193287037</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4664,10 +4568,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:36:59</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44391.40068287037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4735,10 +4637,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:35:56</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44391.3999537037</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4806,10 +4706,8 @@
           <t>4904935147</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:21:30</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44391.38993055555</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4881,10 +4779,8 @@
           <t>4904896505</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:12:42</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44391.38381944445</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4960,10 +4856,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:12:08</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44391.38342592592</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5039,10 +4933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:11:11</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44391.3827662037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5106,10 +4998,8 @@
           <t>4904841709</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:01:44</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44391.3762037037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5169,10 +5059,8 @@
           <t>4904840050</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:00:36</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44391.37541666667</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5244,10 +5132,8 @@
           <t>4904776679</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:44:32</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44391.36425925926</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5315,10 +5201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:42:30</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44391.32118055555</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5394,10 +5278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:32:07</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44391.31396990741</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5482,10 +5364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:12:24</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44391.30027777778</v>
       </c>
       <c r="I69" t="n">
         <v>5</v>
@@ -5561,10 +5441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-14 04:35:17</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44391.19116898148</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5636,10 +5514,8 @@
           <t>4904279694</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-14 04:08:51</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44391.1728125</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5710,10 +5586,8 @@
           <t>4904277714</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-14 04:02:37</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44391.1684837963</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5784,10 +5658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:36:18</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44391.15020833333</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -5859,10 +5731,8 @@
           <t>4903614249</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:11:11</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44391.1327662037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5934,10 +5804,8 @@
           <t>4903614249</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:05:28</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44391.1287962963</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6009,10 +5877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:58:21</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44391.12385416667</v>
       </c>
       <c r="I76" t="n">
         <v>5</v>
@@ -6076,10 +5942,8 @@
           <t>4902893717</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:56:32</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44391.08092592593</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6151,10 +6015,8 @@
           <t>4904054582</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:50:50</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44391.07696759259</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6218,10 +6080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:01:20</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44391.0425925926</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6289,10 +6149,8 @@
           <t>4903961738</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:50:11</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44390.95151620371</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6360,10 +6218,8 @@
           <t>4902709563</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:50:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44390.95144675926</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6439,10 +6295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:49:03</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44390.95072916667</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6506,10 +6360,8 @@
           <t>4903947456</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:34</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44390.95039351852</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6577,10 +6429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:04</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44390.9500462963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6648,10 +6498,8 @@
           <t>4903917103</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:45</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44390.94774305556</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6723,10 +6571,8 @@
           <t>4902998573</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:40</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44390.94699074074</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6790,10 +6636,8 @@
           <t>4903895911</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:51</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44390.94572916667</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6853,10 +6697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:00</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44390.94513888889</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6928,10 +6770,8 @@
           <t>4903872507</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:23</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44390.94401620371</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6995,10 +6835,8 @@
           <t>4903486724</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:51</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44390.94295138889</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7074,10 +6912,8 @@
           <t>4903851883</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:51</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44390.94225694444</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7145,10 +6981,8 @@
           <t>4902724088</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44390.94197916667</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7208,10 +7042,8 @@
           <t>4903165501</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:19</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44390.94119212963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7283,10 +7115,8 @@
           <t>4902566604</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:29</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44390.93991898148</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7354,10 +7184,8 @@
           <t>4902965314</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:46</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44390.93942129629</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7433,10 +7261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:16</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44390.93907407407</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7512,10 +7338,8 @@
           <t>4903812884</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:13</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44390.93903935186</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7587,10 +7411,8 @@
           <t>4902571840</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:51</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44390.93739583333</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7654,10 +7476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:47</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44390.93665509259</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7725,10 +7545,8 @@
           <t>4902998573</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:13</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44390.93556712963</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7803,10 +7621,8 @@
           <t>4903729560</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:21:52</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44390.93185185185</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7878,10 +7694,8 @@
           <t>4903627113</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:21:51</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44390.93184027778</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7949,10 +7763,8 @@
           <t>4903627113</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:21:37</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44390.93167824074</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8020,10 +7832,8 @@
           <t>4902792090</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:19:52</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44390.93046296296</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8091,10 +7901,8 @@
           <t>4903703209</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:18:40</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44390.92962962963</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8170,10 +7978,8 @@
           <t>4902724088</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:17:56</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44390.92912037037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8233,10 +8039,8 @@
           <t>4903627113</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:16:47</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44390.92832175926</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8313,10 +8117,8 @@
           <t>4902998573</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:15:38</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44390.92752314815</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8392,10 +8194,8 @@
           <t>4903677431</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:15:20</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44390.92731481481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8463,10 +8263,8 @@
           <t>4902998573</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:14:19</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44390.9266087963</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8530,10 +8328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:12:17</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44390.92519675926</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8597,10 +8393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:12:10</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44390.92511574074</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8672,10 +8466,8 @@
           <t>4903627113</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:12:07</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44390.92508101852</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8752,10 +8544,8 @@
           <t>4903655115</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:11:21</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44390.92454861111</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8827,10 +8617,8 @@
           <t>4903614249</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:10:15</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44390.92378472222</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8898,10 +8686,8 @@
           <t>4902566604</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:09:02</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44390.92293981482</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8969,10 +8755,8 @@
           <t>4903627113</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:08:24</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44390.9225</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9040,10 +8824,8 @@
           <t>4902965314</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:07:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44390.92185185185</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9119,10 +8901,8 @@
           <t>4903614249</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:07:23</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44390.92179398148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9194,10 +8974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:05:48</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44390.92069444444</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -9274,10 +9052,8 @@
           <t>4903602117</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:05:46</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44390.9206712963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9345,10 +9121,8 @@
           <t>4903594220</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:04:41</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44390.91991898148</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9416,10 +9190,8 @@
           <t>4903587525</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:04:06</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44390.91951388889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9487,10 +9259,8 @@
           <t>4903580452</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:02:19</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44390.91827546297</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9558,10 +9328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:01:47</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44390.9179050926</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9629,10 +9397,8 @@
           <t>4902667377</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:01:07</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44390.91744212963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9708,10 +9474,8 @@
           <t>4903264892</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:01:03</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44390.91739583333</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9779,10 +9543,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:59:05</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44390.91603009259</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9846,10 +9608,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:57:35</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44390.91498842592</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -9917,10 +9677,8 @@
           <t>4903524955</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:56:29</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44390.91422453704</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9980,10 +9738,8 @@
           <t>4902998573</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:56:08</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44390.91398148148</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10055,10 +9811,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:55:12</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44390.91333333333</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10126,10 +9880,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:54:46</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44390.91303240741</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10197,10 +9949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:54:35</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44390.91290509259</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10268,10 +10018,8 @@
           <t>4902629349</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:54:25</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44390.91278935185</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10335,10 +10083,8 @@
           <t>4902724088</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:54:06</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44390.91256944444</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10406,10 +10152,8 @@
           <t>4903494705</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:52:27</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44390.91142361111</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10485,10 +10229,8 @@
           <t>4903486724</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:50:09</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44390.90982638889</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10552,10 +10294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:48:00</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44390.90833333333</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10615,10 +10355,8 @@
           <t>4903462819</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:47:26</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44390.90793981482</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10686,10 +10424,8 @@
           <t>4903454440</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:46:52</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44390.90754629629</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10765,10 +10501,8 @@
           <t>4902998573</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:45:53</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44390.90686342592</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10844,10 +10578,8 @@
           <t>4903056389</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:45:21</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44390.90649305555</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10923,10 +10655,8 @@
           <t>4903433375</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:43:31</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44390.90521990741</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11002,10 +10732,8 @@
           <t>4903431747</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:42:51</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44390.90475694444</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11081,10 +10809,8 @@
           <t>4903430185</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:42:12</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44390.90430555555</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11160,10 +10886,8 @@
           <t>4903420186</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:41:35</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44390.90387731481</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11239,10 +10963,8 @@
           <t>4903412818</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:41:03</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44390.90350694444</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11314,10 +11036,8 @@
           <t>4902995480</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:40:19</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44390.90299768518</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11393,10 +11113,8 @@
           <t>4903410628</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:40:12</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44390.90291666667</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11469,10 +11187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:38:25</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44390.90167824074</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11536,10 +11252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:37:52</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44390.9012962963</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11615,10 +11329,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:36:44</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44390.90050925926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11682,10 +11394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:36:17</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44390.90019675926</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11745,10 +11455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:34:39</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44390.8990625</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11820,10 +11528,8 @@
           <t>4903365638</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:34:18</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44390.89881944445</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11887,10 +11593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:33:20</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44390.89814814815</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11967,10 +11671,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:32:06</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44390.89729166667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12038,10 +11740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:30:17</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44390.89603009259</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12101,10 +11801,8 @@
           <t>4902724088</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:30:14</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44390.89599537037</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12164,10 +11862,8 @@
           <t>4903330611</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:29:49</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44390.89570601852</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12239,10 +11935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:29:10</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44390.89525462963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12310,10 +12004,8 @@
           <t>4902554933</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:28:24</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44390.89472222222</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12377,10 +12069,8 @@
           <t>4903309613</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:28:19</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44390.89466435185</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12448,10 +12138,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:27:37</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44390.89417824074</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12519,10 +12207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:26:43</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44390.89355324074</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12590,10 +12276,8 @@
           <t>4902566604</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:26:35</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44390.89346064815</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12669,10 +12353,8 @@
           <t>4903302775</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:26:30</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44390.89340277778</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12751,10 +12433,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:25:59</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44390.89304398148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12822,10 +12502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:25:23</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44390.89262731482</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12893,10 +12571,8 @@
           <t>4903274785</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:23:02</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44390.89099537037</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12961,10 +12637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:22:46</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44390.89081018518</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13034,10 +12708,8 @@
           <t>4903264892</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:22:36</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44390.89069444445</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13105,10 +12777,8 @@
           <t>4902893717</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:22:20</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44390.89050925926</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13180,10 +12850,8 @@
           <t>4903262093</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:21:25</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44390.88987268518</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13251,10 +12919,8 @@
           <t>4903114493</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:21:21</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44390.88982638889</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13326,10 +12992,8 @@
           <t>4903265676</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:20:52</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44390.88949074074</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13401,10 +13065,8 @@
           <t>4902611881</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:19:09</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44390.88829861111</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13476,10 +13138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:18:42</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44390.88798611111</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13547,10 +13207,8 @@
           <t>4903165501</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:18:17</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44390.88769675926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13622,10 +13280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:18:11</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44390.88762731481</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13701,10 +13357,8 @@
           <t>4903219210</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:16:10</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44390.88622685185</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -13776,10 +13430,8 @@
           <t>4903189486</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:11:54</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44390.88326388889</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13851,10 +13503,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:11:48</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44390.88319444445</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13930,10 +13580,8 @@
           <t>4903192855</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:11:38</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44390.8830787037</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14009,10 +13657,8 @@
           <t>4903190952</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:10:52</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44390.8825462963</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14088,10 +13734,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:10:26</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44390.88224537037</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14163,10 +13807,8 @@
           <t>4903185424</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:10:07</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44390.88202546296</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14242,10 +13884,8 @@
           <t>4902667377</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:09:44</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44390.88175925926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14317,10 +13957,8 @@
           <t>4903170568</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:07:57</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44390.88052083334</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14384,10 +14022,8 @@
           <t>4903165501</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:06:57</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44390.87982638889</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14459,10 +14095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:06:41</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44390.8796412037</v>
       </c>
       <c r="I192" t="n">
         <v>5</v>
@@ -14530,10 +14164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:05:46</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44390.87900462963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14601,10 +14233,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:04:09</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44390.87788194444</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14672,10 +14302,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:01:36</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44390.87611111111</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14739,10 +14367,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:01:16</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44390.87587962963</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14806,10 +14432,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:00:54</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44390.875625</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14877,10 +14501,8 @@
           <t>4903114493</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:00:48</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44390.87555555555</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14948,10 +14570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:00:46</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44390.87553240741</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15023,10 +14643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:00:23</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44390.8752662037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15086,10 +14704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:00:12</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44390.87513888889</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15157,10 +14773,8 @@
           <t>4903095143</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:56:52</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44390.87282407407</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15232,10 +14846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:56:40</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44390.87268518518</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15303,10 +14915,8 @@
           <t>4903073299</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:55:37</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44390.87195601852</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15370,10 +14980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:55:28</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44390.87185185185</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15437,10 +15045,8 @@
           <t>4903077456</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:55:28</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44390.87185185185</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15512,10 +15118,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:53:42</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44390.870625</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15579,10 +15183,8 @@
           <t>4903058388</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:53:37</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44390.87056712963</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15650,10 +15252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:53:22</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44390.87039351852</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15721,10 +15321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:53:12</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44390.87027777778</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15800,10 +15398,8 @@
           <t>4903065552</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:53:04</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44390.87018518519</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15880,10 +15476,8 @@
           <t>4903056389</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:52:42</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44390.86993055556</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15947,10 +15541,8 @@
           <t>4903049261</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:51:57</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44390.86940972223</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16022,10 +15614,8 @@
           <t>4903044118</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:51:43</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44390.86924768519</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16101,10 +15691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:51:05</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44390.86880787037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16176,10 +15764,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:50:19</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44390.86827546296</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16243,10 +15829,8 @@
           <t>4903040164</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:50:00</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44390.86805555555</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16322,10 +15906,8 @@
           <t>4902998573</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:49:18</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44390.86756944445</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16397,10 +15979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:48:00</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44390.86666666667</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16468,10 +16048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:47:46</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44390.86650462963</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16543,10 +16121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:47:45</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44390.86649305555</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16618,10 +16194,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:47:28</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44390.8662962963</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16681,10 +16255,8 @@
           <t>4903009841</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:46:49</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44390.86584490741</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16760,10 +16332,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:46:13</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44390.86542824074</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16839,10 +16409,8 @@
           <t>4902998573</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:44:46</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44390.8644212963</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -16906,10 +16474,8 @@
           <t>4902965219</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:44:39</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44390.86434027777</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -16990,10 +16556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:44:18</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44390.86409722222</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17056,10 +16620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:43:56</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44390.86384259259</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -17119,10 +16681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:43:47</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44390.86373842593</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17182,10 +16742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:43:40</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44390.8636574074</v>
       </c>
       <c r="I230" t="n">
         <v>4</v>
@@ -17252,10 +16810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:43:33</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44390.86357638889</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17315,10 +16871,8 @@
           <t>4902991652</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:43:30</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44390.86354166667</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17386,10 +16940,8 @@
           <t>4902995480</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:43:19</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44390.86341435185</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17453,10 +17005,8 @@
           <t>4902983286</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:42:09</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44390.86260416666</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17532,10 +17082,8 @@
           <t>4902982817</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:41:58</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44390.86247685185</v>
       </c>
       <c r="I235" t="n">
         <v>4</v>
@@ -17611,10 +17159,8 @@
           <t>4902970908</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:40:23</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44390.86137731482</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17678,10 +17224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:40:01</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44390.86112268519</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17757,10 +17301,8 @@
           <t>4902965314</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:38:56</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44390.86037037037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17836,10 +17378,8 @@
           <t>4902965219</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:38:53</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44390.86033564815</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17907,10 +17447,8 @@
           <t>4902952719</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:37:53</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44390.8596412037</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17974,10 +17512,8 @@
           <t>4902579063</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:37:39</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44390.85947916667</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18053,10 +17589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:35:27</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44390.85795138889</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18120,10 +17654,8 @@
           <t>4902864790</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:34:56</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44390.85759259259</v>
       </c>
       <c r="I243" t="n">
         <v>13</v>
@@ -18191,10 +17723,8 @@
           <t>4902923857</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:34:17</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44390.85714120371</v>
       </c>
       <c r="I244" t="n">
         <v>5</v>
@@ -18270,10 +17800,8 @@
           <t>4902912164</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:32:37</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44390.8559837963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18347,10 +17875,8 @@
           <t>4902916234</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:32:21</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44390.85579861111</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -18410,10 +17936,8 @@
           <t>4902866752</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:31:39</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44390.8553125</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18489,10 +18013,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:31:28</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44390.85518518519</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18560,10 +18082,8 @@
           <t>4902653297</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:31:24</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44390.85513888889</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18639,10 +18159,8 @@
           <t>4902905027</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:30:41</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44390.8546412037</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18710,10 +18228,8 @@
           <t>4902893717</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:30:07</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44390.85424768519</v>
       </c>
       <c r="I251" t="n">
         <v>5</v>
@@ -18785,10 +18301,8 @@
           <t>4902887539</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:28:35</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44390.85318287037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18865,10 +18379,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:27:55</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44390.85271990741</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18936,10 +18448,8 @@
           <t>4902877713</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:27:39</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44390.85253472222</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19007,10 +18517,8 @@
           <t>4902576263</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:27:04</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44390.85212962963</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19074,10 +18582,8 @@
           <t>4902864790</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:26:25</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44390.85167824074</v>
       </c>
       <c r="I256" t="n">
         <v>22</v>
@@ -19149,10 +18655,8 @@
           <t>4902872014</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:26:15</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44390.8515625</v>
       </c>
       <c r="I257" t="n">
         <v>24</v>
@@ -19216,10 +18720,8 @@
           <t>4902866752</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:25:45</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44390.85121527778</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19279,10 +18781,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:25:23</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44390.85096064815</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19353,10 +18853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:24:32</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44390.85037037037</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19432,10 +18930,8 @@
           <t>4902848016</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:23:34</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44390.84969907408</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19499,10 +18995,8 @@
           <t>4902571840</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:23:29</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44390.84964120371</v>
       </c>
       <c r="I262" t="n">
         <v>8</v>
@@ -19570,10 +19064,8 @@
           <t>4902846831</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:23:06</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44390.849375</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19645,10 +19137,8 @@
           <t>4902851060</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:23:06</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44390.849375</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19720,10 +19210,8 @@
           <t>4902706268</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:22:52</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44390.84921296296</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19795,10 +19283,8 @@
           <t>4902834854</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:22:18</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44390.84881944444</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19874,10 +19360,8 @@
           <t>4902838497</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:21:56</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44390.84856481481</v>
       </c>
       <c r="I267" t="n">
         <v>4</v>
@@ -19945,10 +19429,8 @@
           <t>4902833871</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:21:54</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44390.84854166667</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20024,10 +19506,8 @@
           <t>4902706268</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:21:37</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44390.8483449074</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20087,10 +19567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:21:29</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44390.84825231481</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20154,10 +19632,8 @@
           <t>4902832089</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:21:08</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44390.84800925926</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20229,10 +19705,8 @@
           <t>4902653297</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:59</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44390.8479050926</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20304,10 +19778,8 @@
           <t>4902829543</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:58</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44390.84789351852</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20375,10 +19847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:57</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44390.84788194444</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20454,10 +19924,8 @@
           <t>4902836152</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:52</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44390.84782407407</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20521,10 +19989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:33</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44390.84760416667</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20600,10 +20066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:33</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44390.84760416667</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20671,10 +20135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:18</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44390.84743055556</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20738,10 +20200,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:16</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44390.8474074074</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -20809,10 +20269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:20:06</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44390.84729166667</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20880,10 +20338,8 @@
           <t>4902733952</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:19:39</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44390.84697916666</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20959,10 +20415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:19:20</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44390.84675925926</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21026,10 +20480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:18:45</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44390.84635416666</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21093,10 +20545,8 @@
           <t>4902706268</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:18:42</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44390.84631944444</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21168,10 +20618,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:18:33</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44390.84621527778</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21231,10 +20679,8 @@
           <t>4902706268</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:18:23</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44390.84609953704</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21306,10 +20752,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:18:21</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44390.84607638889</v>
       </c>
       <c r="I287" t="n">
         <v>2</v>
@@ -21373,10 +20817,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:17:48</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44390.84569444445</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21440,10 +20882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:17:28</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44390.84546296296</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21511,10 +20951,8 @@
           <t>4902805637</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:16:19</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44390.84466435185</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21590,10 +21028,8 @@
           <t>4902792722</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:15:05</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44390.84380787037</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21665,10 +21101,8 @@
           <t>4902792697</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:15:05</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44390.84380787037</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21732,10 +21166,8 @@
           <t>4902792090</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:14:49</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44390.84362268518</v>
       </c>
       <c r="I293" t="n">
         <v>5</v>
@@ -21799,10 +21231,8 @@
           <t>4902784665</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:14:40</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44390.84351851852</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21878,10 +21308,8 @@
           <t>4902706268</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:14:32</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44390.84342592592</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21941,10 +21369,8 @@
           <t>4902787459</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:14:27</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44390.84336805555</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22012,10 +21438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:14:04</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44390.84310185185</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22083,10 +21507,8 @@
           <t>4902779795</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:13:51</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44390.84295138889</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22158,10 +21580,8 @@
           <t>4902749815</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:13:46</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44390.84289351852</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22236,10 +21656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:56</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44390.84231481481</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -22315,10 +21733,8 @@
           <t>4902769932</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:38</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44390.84210648148</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22378,10 +21794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:35</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44390.84207175926</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22445,10 +21859,8 @@
           <t>4902724088</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:22</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44390.8419212963</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22508,10 +21920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:18</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44390.841875</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22585,10 +21995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:16</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44390.84185185185</v>
       </c>
       <c r="I305" t="n">
         <v>14</v>
@@ -22673,10 +22081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:11</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44390.84179398148</v>
       </c>
       <c r="I306" t="n">
         <v>5</v>
@@ -22752,10 +22158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:12:04</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44390.84171296296</v>
       </c>
       <c r="I307" t="n">
         <v>2</v>
@@ -22827,10 +22231,8 @@
           <t>4902775381</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:11:59</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44390.84165509259</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22896,10 +22298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:11:58</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44390.84164351852</v>
       </c>
       <c r="I309" t="n">
         <v>4</v>
@@ -22975,10 +22375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:11:51</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44390.8415625</v>
       </c>
       <c r="I310" t="n">
         <v>4</v>
@@ -23054,10 +22452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:11:44</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44390.84148148148</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23126,10 +22522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:11:44</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44390.84148148148</v>
       </c>
       <c r="I312" t="n">
         <v>9</v>
@@ -23197,10 +22591,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:11:03</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44390.84100694444</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23272,10 +22664,8 @@
           <t>4902763086</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:11:00</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44390.84097222222</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23347,10 +22737,8 @@
           <t>4902706268</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:10:53</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44390.8408912037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23422,10 +22810,8 @@
           <t>4902762754</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:10:52</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44390.84087962963</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23489,10 +22875,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:10:42</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44390.84076388889</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23561,10 +22945,8 @@
           <t>4902576263</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:10:22</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44390.8405324074</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23636,10 +23018,8 @@
           <t>4902749815</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:10:14</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44390.84043981481</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23715,10 +23095,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:43</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44390.84008101852</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23794,10 +23172,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:43</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44390.84008101852</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23865,10 +23241,8 @@
           <t>4902749815</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:36</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44390.84</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23940,10 +23314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:32</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44390.8399537037</v>
       </c>
       <c r="I323" t="n">
         <v>4</v>
@@ -24003,10 +23375,8 @@
           <t>4902653297</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:26</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44390.83988425926</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24082,10 +23452,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:26</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44390.83988425926</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24157,10 +23525,8 @@
           <t>4902749021</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:16</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44390.83976851852</v>
       </c>
       <c r="I326" t="n">
         <v>2</v>
@@ -24236,10 +23602,8 @@
           <t>4902756337</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:15</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44390.83975694444</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24311,10 +23675,8 @@
           <t>4902748769</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:09</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44390.8396875</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24382,10 +23744,8 @@
           <t>4902748714</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:09:08</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44390.83967592593</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24462,10 +23822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:51</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44390.83947916667</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24537,10 +23895,8 @@
           <t>4902717923</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:49</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44390.83945601852</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24616,10 +23972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:42</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44390.839375</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24679,10 +24033,8 @@
           <t>4902733952</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:38</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44390.8393287037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24763,10 +24115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:36</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44390.83930555556</v>
       </c>
       <c r="I334" t="n">
         <v>227</v>
@@ -24842,10 +24192,8 @@
           <t>4902611881</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:26</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44390.83918981482</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24913,10 +24261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:25</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44390.83917824074</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24992,10 +24338,8 @@
           <t>4902626188</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:21</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44390.83913194444</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25071,10 +24415,8 @@
           <t>4902724088</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:13</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44390.83903935185</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25134,10 +24476,8 @@
           <t>4902739397</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:08:05</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44390.83894675926</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25209,10 +24549,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:07:56</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44390.8388425926</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25284,10 +24622,8 @@
           <t>4902743214</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:07:49</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44390.83876157407</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25363,10 +24699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:07:37</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44390.83862268519</v>
       </c>
       <c r="I342" t="n">
         <v>2</v>
@@ -25442,10 +24776,8 @@
           <t>4902734947</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:07:33</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44390.83857638889</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25513,10 +24845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:07:23</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44390.83846064815</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25592,10 +24922,8 @@
           <t>4902742112</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:07:17</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44390.8383912037</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -25659,10 +24987,8 @@
           <t>4902733952</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:07:08</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44390.83828703704</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25738,10 +25064,8 @@
           <t>4902629349</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:07:02</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44390.83821759259</v>
       </c>
       <c r="I347" t="n">
         <v>18</v>
@@ -25805,10 +25129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:06:57</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44390.83815972223</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25884,10 +25206,8 @@
           <t>4902741159</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:06:51</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44390.83809027778</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25959,10 +25279,8 @@
           <t>4902565046</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:06:36</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44390.83791666666</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26038,10 +25356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:06:24</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44390.83777777778</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26106,10 +25422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:06:08</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44390.83759259259</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26185,10 +25499,8 @@
           <t>4902724088</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:05:53</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44390.83741898148</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26248,10 +25560,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:05:39</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44390.83725694445</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26315,10 +25625,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:05:32</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44390.83717592592</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26386,10 +25694,8 @@
           <t>4902722527</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:05:11</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44390.83693287037</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26457,10 +25763,8 @@
           <t>4902718534</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:04:54</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44390.83673611111</v>
       </c>
       <c r="I357" t="n">
         <v>2</v>
@@ -26536,10 +25840,8 @@
           <t>4902717923</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:04:38</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44390.83655092592</v>
       </c>
       <c r="I358" t="n">
         <v>3</v>
@@ -26615,10 +25917,8 @@
           <t>4902721232</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:04:35</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44390.8365162037</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26686,10 +25986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:04:29</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44390.83644675926</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26757,10 +26055,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:04:26</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44390.83641203704</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26820,10 +26116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:04:12</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44390.83625</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26895,10 +26189,8 @@
           <t>4902720048</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:04:01</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44390.83612268518</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26958,10 +26250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:03:52</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44390.83601851852</v>
       </c>
       <c r="I364" t="n">
         <v>33</v>
@@ -27033,10 +26323,8 @@
           <t>4902716081</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:03:52</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44390.83601851852</v>
       </c>
       <c r="I365" t="n">
         <v>4</v>
@@ -27108,10 +26396,8 @@
           <t>4902709563</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:03:48</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44390.83597222222</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27187,10 +26473,8 @@
           <t>4902576263</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:03:24</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44390.83569444445</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27254,10 +26538,8 @@
           <t>4902708322</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:03:13</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44390.83556712963</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27333,10 +26615,8 @@
           <t>4902703558</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:02:51</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44390.8353125</v>
       </c>
       <c r="I369" t="n">
         <v>2</v>
@@ -27400,10 +26680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:02:46</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44390.83525462963</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27480,10 +26758,8 @@
           <t>4902711226</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:02:33</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44390.83510416667</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27559,10 +26835,8 @@
           <t>4902702577</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:02:27</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44390.83503472222</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27638,10 +26912,8 @@
           <t>4902706268</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:02:17</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44390.83491898148</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27713,10 +26985,8 @@
           <t>4902554168</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:01:27</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44390.83434027778</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27784,10 +27054,8 @@
           <t>4902681106</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:01:13</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44390.83417824074</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27863,10 +27131,8 @@
           <t>4902698024</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:01:13</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44390.83417824074</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27942,10 +27208,8 @@
           <t>4902693034</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:00:51</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44390.83392361111</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28021,10 +27285,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:00:40</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44390.8337962963</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28102,10 +27364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:00:34</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44390.83372685185</v>
       </c>
       <c r="I379" t="n">
         <v>7</v>
@@ -28169,10 +27429,8 @@
           <t>4902696219</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:00:28</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44390.83365740741</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28240,10 +27498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:00:12</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44390.83347222222</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28319,10 +27575,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:59:50</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44390.83321759259</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28386,10 +27640,8 @@
           <t>4902686092</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:59:48</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44390.83319444444</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28461,10 +27713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:59:47</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44390.83318287037</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28532,10 +27782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:59:19</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44390.8328587963</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28599,10 +27847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:59:06</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44390.83270833334</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28674,10 +27920,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:59:05</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44390.83269675926</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28741,10 +27985,8 @@
           <t>4902670104</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:59:02</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44390.83266203704</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28812,10 +28054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:58:55</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44390.83258101852</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28883,10 +28123,8 @@
           <t>4902681106</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:58:23</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44390.83221064815</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28962,10 +28200,8 @@
           <t>4902680425</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:58:05</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44390.83200231481</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29041,10 +28277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:58:00</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44390.83194444444</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29116,10 +28350,8 @@
           <t>4902675292</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:57:54</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44390.831875</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29195,10 +28427,8 @@
           <t>4902671317</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:57:49</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44390.83181712963</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29274,10 +28504,8 @@
           <t>4902675292</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:57:25</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44390.83153935185</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29353,10 +28581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:57:24</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44390.83152777778</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29420,10 +28646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:57:17</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44390.83144675926</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29495,10 +28719,8 @@
           <t>4902670104</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:57:16</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44390.83143518519</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29570,10 +28792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:57:06</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44390.83131944444</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29637,10 +28857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:56:52</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44390.83115740741</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29716,10 +28934,8 @@
           <t>4902667377</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:56:51</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44390.83114583333</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29795,10 +29011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:56:50</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44390.83113425926</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29874,10 +29088,8 @@
           <t>4902667335</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:56:50</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44390.83113425926</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29953,10 +29165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:56:46</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44390.83108796296</v>
       </c>
       <c r="I404" t="n">
         <v>9</v>
@@ -30024,10 +29234,8 @@
           <t>4902666866</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:56:38</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44390.83099537037</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30091,10 +29299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:56:36</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44390.83097222223</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -30170,10 +29376,8 @@
           <t>4902657097</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:55:55</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44390.83049768519</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30241,10 +29445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:55:49</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44390.83042824074</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30316,10 +29518,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:55:39</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44390.8303125</v>
       </c>
       <c r="I409" t="n">
         <v>3</v>
@@ -30387,10 +29587,8 @@
           <t>4902656327</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:55:34</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44390.83025462963</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30458,10 +29656,8 @@
           <t>4902656296</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:55:33</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44390.83024305556</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30537,10 +29733,8 @@
           <t>4902653297</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:55:31</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44390.83021990741</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30604,10 +29798,8 @@
           <t>4902653297</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:55:10</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44390.82997685186</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30671,10 +29863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:55:00</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44390.82986111111</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30738,10 +29928,8 @@
           <t>4902652791</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:54:58</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44390.82983796296</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30805,10 +29993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:54:30</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44390.82951388889</v>
       </c>
       <c r="I416" t="n">
         <v>17</v>
@@ -30876,10 +30062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:54:25</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44390.82945601852</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30947,10 +30131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:54:21</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44390.82940972222</v>
       </c>
       <c r="I418" t="n">
         <v>24</v>
@@ -31018,10 +30200,8 @@
           <t>4902651216</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:54:20</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44390.82939814815</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31097,10 +30277,8 @@
           <t>4902647444</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:54:17</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44390.82936342592</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31164,10 +30342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:54:15</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44390.82934027778</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31239,10 +30415,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:53:57</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44390.82913194445</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31310,10 +30484,8 @@
           <t>4902646422</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:53:52</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44390.82907407408</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31389,10 +30561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:53:43</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44390.82896990741</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31503,10 +30673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:53:13</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44390.82862268519</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31618,10 +30786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:53:08</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44390.82856481482</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31727,10 +30893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:53:04</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44390.82851851852</v>
       </c>
       <c r="I427" t="n">
         <v>2</v>
@@ -31859,10 +31023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:52:58</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44390.82844907408</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31939,10 +31101,8 @@
           <t>4902637697</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:52:53</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44390.8283912037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32006,10 +31166,8 @@
           <t>4902633706</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:52:45</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44390.82829861111</v>
       </c>
       <c r="I430" t="n">
         <v>2</v>
@@ -32110,10 +31268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:52:43</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44390.82827546296</v>
       </c>
       <c r="I431" t="n">
         <v>3</v>
@@ -32190,10 +31346,8 @@
           <t>4902629349</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:52:27</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44390.82809027778</v>
       </c>
       <c r="I432" t="n">
         <v>15</v>
@@ -32261,10 +31415,8 @@
           <t>4902632476</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:52:14</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44390.82793981482</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32328,10 +31480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:52:09</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44390.82788194445</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32395,10 +31545,8 @@
           <t>4902635750</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:52:05</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44390.82783564815</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32583,10 +31731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:51:48</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44390.82763888889</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32663,10 +31809,8 @@
           <t>4902631022</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:51:38</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44390.82752314815</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32734,10 +31878,8 @@
           <t>4902630763</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:51:32</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44390.82745370371</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32813,10 +31955,8 @@
           <t>4902626586</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:51:11</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44390.82721064815</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32876,10 +32016,8 @@
           <t>4902619805</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:51:08</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44390.82717592592</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32951,10 +32089,8 @@
           <t>4902626188</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:51:00</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44390.82708333333</v>
       </c>
       <c r="I441" t="n">
         <v>2</v>
@@ -33061,10 +32197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:57</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44390.82704861111</v>
       </c>
       <c r="I442" t="n">
         <v>3</v>
@@ -33141,10 +32275,8 @@
           <t>4902622898</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:57</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44390.82704861111</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33204,10 +32336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:46</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44390.8269212963</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -33275,10 +32405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:45</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44390.82690972222</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33443,10 +32571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:39</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44390.82684027778</v>
       </c>
       <c r="I446" t="n">
         <v>3</v>
@@ -33581,10 +32707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:32</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44390.82675925926</v>
       </c>
       <c r="I447" t="n">
         <v>2</v>
@@ -33740,10 +32864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:24</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44390.82666666667</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33820,10 +32942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:23</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44390.82665509259</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -33942,10 +33062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:18</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44390.82659722222</v>
       </c>
       <c r="I450" t="n">
         <v>2</v>
@@ -34051,10 +33169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:12</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44390.82652777778</v>
       </c>
       <c r="I451" t="n">
         <v>40</v>
@@ -34132,10 +33248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:03</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44390.82642361111</v>
       </c>
       <c r="I452" t="n">
         <v>3</v>
@@ -34207,10 +33321,8 @@
           <t>4902620767</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:50:03</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44390.82642361111</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -34282,10 +33394,8 @@
           <t>4902616802</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:54</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44390.82631944444</v>
       </c>
       <c r="I454" t="n">
         <v>2</v>
@@ -34377,10 +33487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:52</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44390.8262962963</v>
       </c>
       <c r="I455" t="n">
         <v>2</v>
@@ -34457,10 +33565,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:48</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44390.82625</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -34548,10 +33654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:42</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44390.82618055555</v>
       </c>
       <c r="I457" t="n">
         <v>2</v>
@@ -34628,10 +33732,8 @@
           <t>4902613132</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:37</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44390.82612268518</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34752,10 +33854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:28</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44390.82601851852</v>
       </c>
       <c r="I459" t="n">
         <v>3</v>
@@ -34832,10 +33932,8 @@
           <t>4902615600</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:26</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44390.82599537037</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34903,10 +34001,8 @@
           <t>4902612493</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:19</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44390.82591435185</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34978,10 +34074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:17</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44390.82589120371</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -35116,10 +34210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:15</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44390.82586805556</v>
       </c>
       <c r="I463" t="n">
         <v>2</v>
@@ -35196,10 +34288,8 @@
           <t>4902611881</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:49:02</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44390.82571759259</v>
       </c>
       <c r="I464" t="n">
         <v>3</v>
@@ -35342,10 +34432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:46</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44390.82553240741</v>
       </c>
       <c r="I465" t="n">
         <v>2</v>
@@ -35479,10 +34567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:37</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44390.82542824074</v>
       </c>
       <c r="I466" t="n">
         <v>4</v>
@@ -35559,10 +34645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:37</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44390.82542824074</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -35638,10 +34722,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:27</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44390.8253125</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -35701,10 +34783,8 @@
           <t>4902602866</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:19</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44390.8252199074</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -35824,10 +34904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:13</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44390.82515046297</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -35904,10 +34982,8 @@
           <t>4902602603</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:13</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44390.82515046297</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35971,10 +35047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:12</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44390.82513888889</v>
       </c>
       <c r="I472" t="n">
         <v>9</v>
@@ -36050,10 +35124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:10</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44390.82511574074</v>
       </c>
       <c r="I473" t="n">
         <v>3</v>
@@ -36129,10 +35201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:07</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44390.82508101852</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -36200,10 +35270,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:07</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44390.82508101852</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -36271,10 +35339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:05</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44390.82505787037</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -36350,10 +35416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:02</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44390.82502314815</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -36442,10 +35506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:01</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44390.82501157407</v>
       </c>
       <c r="I478" t="n">
         <v>2</v>
@@ -36522,10 +35584,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:59</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44390.82498842593</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -36632,10 +35692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:53</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44390.82491898148</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -36712,10 +35770,8 @@
           <t>4902605555</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:53</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44390.82491898148</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -36840,10 +35896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:46</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44390.82483796297</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -36920,10 +35974,8 @@
           <t>4902554168</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:33</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44390.8246875</v>
       </c>
       <c r="I483" t="n">
         <v>14</v>
@@ -36983,10 +36035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:24</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44390.82458333333</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -37054,10 +36104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:18</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44390.82451388889</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -37129,10 +36177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:18</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44390.82451388889</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -37204,10 +36250,8 @@
           <t>4902565046</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:12</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44390.82444444444</v>
       </c>
       <c r="I487" t="n">
         <v>2</v>
@@ -37373,10 +36417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:11</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44390.82443287037</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -37453,10 +36495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:04</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44390.82435185185</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -37593,10 +36633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:03</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44390.82434027778</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -37673,10 +36711,8 @@
           <t>4902593402</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:47:01</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44390.82431712963</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -37752,10 +36788,8 @@
           <t>4902593171</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:55</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44390.82424768519</v>
       </c>
       <c r="I492" t="n">
         <v>4</v>
@@ -37918,10 +36952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:53</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44390.82422453703</v>
       </c>
       <c r="I493" t="n">
         <v>3</v>
@@ -37998,10 +37030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:50</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44390.82418981481</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -38164,10 +37194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:41</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44390.82408564815</v>
       </c>
       <c r="I495" t="n">
         <v>2</v>
@@ -38244,10 +37272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:37</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44390.82403935185</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -38424,10 +37450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:35</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44390.8240162037</v>
       </c>
       <c r="I497" t="n">
         <v>2</v>
@@ -38504,10 +37528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:32</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44390.82398148148</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -38667,10 +37689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:29</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44390.82394675926</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -38835,10 +37855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:22</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44390.82386574074</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -38997,10 +38015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:15</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44390.82378472222</v>
       </c>
       <c r="I501" t="n">
         <v>2</v>
@@ -39077,10 +38093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:15</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44390.82378472222</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -39148,10 +38162,8 @@
           <t>4902591186</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:09</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44390.82371527778</v>
       </c>
       <c r="I503" t="n">
         <v>13</v>
@@ -39262,10 +38274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:46:07</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44390.82369212963</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -39431,10 +38441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:50</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44390.82349537037</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -39511,10 +38519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:44</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44390.82342592593</v>
       </c>
       <c r="I506" t="n">
         <v>16</v>
@@ -39590,10 +38596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:44</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44390.82342592593</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -39657,10 +38661,8 @@
           <t>4902584930</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:38</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44390.82335648148</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -39728,10 +38730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:29</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44390.82325231482</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -39799,10 +38799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:27</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44390.82322916666</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -39878,10 +38876,8 @@
           <t>4902579063</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:27</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44390.82322916666</v>
       </c>
       <c r="I511" t="n">
         <v>6</v>
@@ -39945,10 +38941,8 @@
           <t>4902566604</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:24</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44390.82319444444</v>
       </c>
       <c r="I512" t="n">
         <v>3</v>
@@ -40016,10 +39010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:10</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44390.82303240741</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -40079,10 +39071,8 @@
           <t>4902566604</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:45:02</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44390.82293981482</v>
       </c>
       <c r="I514" t="n">
         <v>3</v>
@@ -40150,10 +39140,8 @@
           <t>4902578085</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:59</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44390.82290509259</v>
       </c>
       <c r="I515" t="n">
         <v>11</v>
@@ -40230,10 +39218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:51</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44390.8228125</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -40305,10 +39291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:33</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44390.82260416666</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -40376,10 +39360,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:27</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44390.82253472223</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -40455,10 +39437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:20</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44390.8224537037</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -40530,10 +39510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:12</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44390.82236111111</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -40605,10 +39583,8 @@
           <t>4902576263</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:08</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44390.82231481482</v>
       </c>
       <c r="I521" t="n">
         <v>7</v>
@@ -40676,10 +39652,8 @@
           <t>4902566604</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:05</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44390.82228009259</v>
       </c>
       <c r="I522" t="n">
         <v>4</v>
@@ -40747,10 +39721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:44:03</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44390.82225694445</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -40826,10 +39798,8 @@
           <t>4902575898</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:58</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44390.82219907407</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -40897,10 +39867,8 @@
           <t>4902575833</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:56</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44390.82217592592</v>
       </c>
       <c r="I525" t="n">
         <v>2</v>
@@ -40964,10 +39932,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:53</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44390.8221412037</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -41039,10 +40005,8 @@
           <t>4902571840</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:42</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44390.82201388889</v>
       </c>
       <c r="I527" t="n">
         <v>30</v>
@@ -41118,10 +40082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:34</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44390.82192129629</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -41197,10 +40159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:27</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44390.82184027778</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -41276,10 +40236,8 @@
           <t>4902570873</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:16</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44390.82171296296</v>
       </c>
       <c r="I530" t="n">
         <v>14</v>
@@ -41351,10 +40309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:14</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44390.82168981482</v>
       </c>
       <c r="I531" t="n">
         <v>27</v>
@@ -41414,10 +40370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:43:12</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44390.82166666666</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -41489,10 +40443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:42</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44390.82131944445</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -41552,10 +40504,8 @@
           <t>4902567596</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:38</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44390.82127314815</v>
       </c>
       <c r="I534" t="n">
         <v>5</v>
@@ -41631,10 +40581,8 @@
           <t>4902554933</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:33</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44390.82121527778</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -41710,10 +40658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:25</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44390.82112268519</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -41794,10 +40740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:20</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44390.82106481482</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -41873,10 +40817,8 @@
           <t>4902566604</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:13</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44390.82098379629</v>
       </c>
       <c r="I538" t="n">
         <v>19</v>
@@ -41948,10 +40890,8 @@
           <t>4902566508</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:11</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44390.82096064815</v>
       </c>
       <c r="I539" t="n">
         <v>5</v>
@@ -42023,10 +40963,8 @@
           <t>4902566460</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:10</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44390.82094907408</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -42090,10 +41028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:07</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44390.82091435185</v>
       </c>
       <c r="I541" t="n">
         <v>6</v>
@@ -42161,10 +41097,8 @@
           <t>4902557923</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:01</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44390.82084490741</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -42236,10 +41170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:51</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44390.82072916667</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -42307,10 +41239,8 @@
           <t>4902561268</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:49</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44390.82070601852</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -42382,10 +41312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:41</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44390.82061342592</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -42461,10 +41389,8 @@
           <t>4902565046</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:33</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44390.82052083333</v>
       </c>
       <c r="I546" t="n">
         <v>5</v>
@@ -42540,10 +41466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:32</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44390.82050925926</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -42619,10 +41543,8 @@
           <t>4902554933</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:31</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44390.82049768518</v>
       </c>
       <c r="I548" t="n">
         <v>4</v>
@@ -42694,10 +41616,8 @@
           <t>4902556686</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:28</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44390.82046296296</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -42761,10 +41681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:25</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44390.82042824074</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -42836,10 +41754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:17</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44390.82033564815</v>
       </c>
       <c r="I551" t="n">
         <v>24</v>
@@ -42903,10 +41819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:13</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44390.82028935185</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -42974,10 +41888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:12</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44390.82027777778</v>
       </c>
       <c r="I553" t="n">
         <v>205</v>
@@ -43041,10 +41953,8 @@
           <t>4902554248</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:12</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44390.82027777778</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -43120,10 +42030,8 @@
           <t>4902554168</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:41:10</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44390.82025462963</v>
       </c>
       <c r="I555" t="n">
         <v>24</v>
@@ -43187,10 +42095,8 @@
           <t>4902549495</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:59</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44390.82012731482</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -43258,10 +42164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:51</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44390.82003472222</v>
       </c>
       <c r="I557" t="n">
         <v>98</v>
@@ -43325,10 +42229,8 @@
           <t>4902553058</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:42</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44390.81993055555</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -43396,10 +42298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:33</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44390.81982638889</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -43467,10 +42367,8 @@
           <t>4902552593</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:30</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44390.81979166667</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -43530,10 +42428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:29</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44390.81978009259</v>
       </c>
       <c r="I561" t="n">
         <v>1</v>
@@ -43606,10 +42502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:25</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44390.8197337963</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -43677,10 +42571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:13</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44390.81959490741</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -43759,10 +42651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:05</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44390.81950231481</v>
       </c>
       <c r="I564" t="n">
         <v>4</v>
@@ -43838,10 +42728,8 @@
           <t>4902547501</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:40:04</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44390.81949074074</v>
       </c>
       <c r="I565" t="n">
         <v>5</v>
@@ -43913,10 +42801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:59</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44390.81943287037</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -43993,10 +42879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:57</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44390.81940972222</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -44068,10 +42952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:57</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44390.81940972222</v>
       </c>
       <c r="I568" t="n">
         <v>457</v>
@@ -44147,10 +43029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:55</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44390.81938657408</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -44210,10 +43090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:51</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44390.81934027778</v>
       </c>
       <c r="I570" t="n">
         <v>43</v>
@@ -44277,10 +43155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:47</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44390.81929398148</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -44352,10 +43228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:42</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44390.81923611111</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -44427,10 +43301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:40</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44390.81921296296</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -44498,10 +43370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:38</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44390.81918981481</v>
       </c>
       <c r="I574" t="n">
         <v>136</v>
@@ -44573,10 +43443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:37</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44390.81917824074</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -44644,10 +43512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:37</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44390.81917824074</v>
       </c>
       <c r="I576" t="n">
         <v>473</v>
@@ -44723,10 +43589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:25</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44390.81903935185</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -44798,10 +43662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:12</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44390.81888888889</v>
       </c>
       <c r="I578" t="n">
         <v>1</v>
@@ -44865,10 +43727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:10</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44390.81886574074</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -44937,10 +43797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:38:56</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44390.81870370371</v>
       </c>
       <c r="I580" t="n">
         <v>45</v>
